--- a/ExcelDB/ResourceSheet.xlsx
+++ b/ExcelDB/ResourceSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suyb1\Documents\GitHub\Survival\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suyb1\Documents\GitHub\Survival\Survival\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEEA6AB-604E-402C-8BB8-3C1FA7D0E9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF899A-AB8D-4C51-8736-C1170150CF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="675" windowWidth="13230" windowHeight="14805" xr2:uid="{A5162182-80A2-470B-BFF2-2F6061CA9491}"/>
+    <workbookView xWindow="14400" yWindow="675" windowWidth="18720" windowHeight="14805" xr2:uid="{A5162182-80A2-470B-BFF2-2F6061CA9491}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>나무입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceObject/101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceObject/201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceObject/210</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +506,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -547,6 +559,9 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -593,6 +608,9 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -615,6 +633,9 @@
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
